--- a/biology/Biochimie/Liquéfaction_enzymatique/Liquéfaction_enzymatique.xlsx
+++ b/biology/Biochimie/Liquéfaction_enzymatique/Liquéfaction_enzymatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liqu%C3%A9faction_enzymatique</t>
+          <t>Liquéfaction_enzymatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liquéfaction enzymatique est une méthode de déstructuration des matières organiques qui met en œuvre des préparations enzymatiques contenant des pectinases, des cellulases, des hémicellulases et des protéases.
 Cette méthode permet d'obtenir des rendements en jus nettement plus élevés que les processus dits traditionnels.
